--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H2">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I2">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J2">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>222.6499138257867</v>
+        <v>410.7986473424606</v>
       </c>
       <c r="R2">
-        <v>222.6499138257867</v>
+        <v>3697.187826082146</v>
       </c>
       <c r="S2">
-        <v>0.003519523374764169</v>
+        <v>0.005360064914790431</v>
       </c>
       <c r="T2">
-        <v>0.003519523374764169</v>
+        <v>0.005579408019943234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H3">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I3">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J3">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>400.4299815958953</v>
+        <v>632.9840301694566</v>
       </c>
       <c r="R3">
-        <v>400.4299815958953</v>
+        <v>5696.856271525108</v>
       </c>
       <c r="S3">
-        <v>0.006329769708718009</v>
+        <v>0.008259120407729892</v>
       </c>
       <c r="T3">
-        <v>0.006329769708718009</v>
+        <v>0.008597097865999758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H4">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I4">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J4">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>176.4597972416274</v>
+        <v>274.5280402068645</v>
       </c>
       <c r="R4">
-        <v>176.4597972416274</v>
+        <v>2470.752361861781</v>
       </c>
       <c r="S4">
-        <v>0.002789376247340477</v>
+        <v>0.003582017920356712</v>
       </c>
       <c r="T4">
-        <v>0.002789376247340477</v>
+        <v>0.003728600274461418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H5">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I5">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J5">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>290.5376055647848</v>
+        <v>463.9950633467071</v>
       </c>
       <c r="R5">
-        <v>290.5376055647848</v>
+        <v>4175.955570120364</v>
       </c>
       <c r="S5">
-        <v>0.004592653446223087</v>
+        <v>0.006054167110261525</v>
       </c>
       <c r="T5">
-        <v>0.004592653446223087</v>
+        <v>0.006301914074932503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.56660662192072</v>
+        <v>12.36919033333333</v>
       </c>
       <c r="H6">
-        <v>8.56660662192072</v>
+        <v>37.107571</v>
       </c>
       <c r="I6">
-        <v>0.01862363357480387</v>
+        <v>0.02533349179988408</v>
       </c>
       <c r="J6">
-        <v>0.01862363357480387</v>
+        <v>0.02564912807677914</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>88.07950569736775</v>
+        <v>159.2684963536105</v>
       </c>
       <c r="R6">
-        <v>88.07950569736775</v>
+        <v>955.6109781216632</v>
       </c>
       <c r="S6">
-        <v>0.001392310797758128</v>
+        <v>0.002078121446745516</v>
       </c>
       <c r="T6">
-        <v>0.001392310797758128</v>
+        <v>0.001442107841442228</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H7">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I7">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J7">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>11260.16243946855</v>
+        <v>15187.59911317032</v>
       </c>
       <c r="R7">
-        <v>11260.16243946855</v>
+        <v>136688.3920185329</v>
       </c>
       <c r="S7">
-        <v>0.1779942521799495</v>
+        <v>0.1981664683490116</v>
       </c>
       <c r="T7">
-        <v>0.1779942521799495</v>
+        <v>0.2062757821718529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H8">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I8">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J8">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>20251.10434999403</v>
+        <v>23401.99452321553</v>
       </c>
       <c r="R8">
-        <v>20251.10434999403</v>
+        <v>210617.9507089398</v>
       </c>
       <c r="S8">
-        <v>0.3201179551336415</v>
+        <v>0.3053471830822169</v>
       </c>
       <c r="T8">
-        <v>0.3201179551336415</v>
+        <v>0.3178425166932154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H9">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I9">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J9">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>8924.171345204826</v>
+        <v>10149.55099526007</v>
       </c>
       <c r="R9">
-        <v>8924.171345204826</v>
+        <v>91345.95895734063</v>
       </c>
       <c r="S9">
-        <v>0.1410682317821373</v>
+        <v>0.1324304559971386</v>
       </c>
       <c r="T9">
-        <v>0.1410682317821373</v>
+        <v>0.1378497387664686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H10">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I10">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J10">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>14693.47361164271</v>
+        <v>17154.31893018181</v>
       </c>
       <c r="R10">
-        <v>14693.47361164271</v>
+        <v>154388.8703716363</v>
       </c>
       <c r="S10">
-        <v>0.232266085102197</v>
+        <v>0.2238280569559436</v>
       </c>
       <c r="T10">
-        <v>0.232266085102197</v>
+        <v>0.2329874872638794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>433.242395922645</v>
+        <v>457.3002013333333</v>
       </c>
       <c r="H11">
-        <v>433.242395922645</v>
+        <v>1371.900604</v>
       </c>
       <c r="I11">
-        <v>0.9418604106423172</v>
+        <v>0.9366022017903033</v>
       </c>
       <c r="J11">
-        <v>0.9418604106423172</v>
+        <v>0.9482715616337878</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>4454.479791609021</v>
+        <v>5888.300970863602</v>
       </c>
       <c r="R11">
-        <v>4454.479791609021</v>
+        <v>35329.80582518161</v>
       </c>
       <c r="S11">
-        <v>0.07041388644439184</v>
+        <v>0.07683003740599263</v>
       </c>
       <c r="T11">
-        <v>0.07041388644439184</v>
+        <v>0.05331603673837147</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H12">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I12">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J12">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>6.126983717386416</v>
+        <v>15.05661756983267</v>
       </c>
       <c r="R12">
-        <v>6.126983717386416</v>
+        <v>135.509558128494</v>
       </c>
       <c r="S12">
-        <v>9.685187853705543E-05</v>
+        <v>0.0001964574325976256</v>
       </c>
       <c r="T12">
-        <v>9.685187853705543E-05</v>
+        <v>0.0002044968097285639</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H13">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I13">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J13">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>11.01921817544959</v>
+        <v>23.20017003884578</v>
       </c>
       <c r="R13">
-        <v>11.01921817544959</v>
+        <v>208.801530349612</v>
       </c>
       <c r="S13">
-        <v>0.0001741855421083452</v>
+        <v>0.0003027137948161788</v>
       </c>
       <c r="T13">
-        <v>0.0001741855421083452</v>
+        <v>0.0003151013656353962</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H14">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I14">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J14">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>4.855902640585446</v>
+        <v>10.06201880247322</v>
       </c>
       <c r="R14">
-        <v>4.855902640585446</v>
+        <v>90.55816922225898</v>
       </c>
       <c r="S14">
-        <v>7.67593508367222E-05</v>
+        <v>0.0001312883435814657</v>
       </c>
       <c r="T14">
-        <v>7.67593508367222E-05</v>
+        <v>0.0001366608891400212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H15">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I15">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J15">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>7.995148742688196</v>
+        <v>17.00637591748844</v>
       </c>
       <c r="R15">
-        <v>7.995148742688196</v>
+        <v>153.057383257396</v>
       </c>
       <c r="S15">
-        <v>0.0001263827701573917</v>
+        <v>0.0002218977094320262</v>
       </c>
       <c r="T15">
-        <v>0.0001263827701573917</v>
+        <v>0.0002309781465884516</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.235739858973545</v>
+        <v>0.4533563333333333</v>
       </c>
       <c r="H16">
-        <v>0.235739858973545</v>
+        <v>1.360069</v>
       </c>
       <c r="I16">
-        <v>0.0005124937966995016</v>
+        <v>0.0009285247169311226</v>
       </c>
       <c r="J16">
-        <v>0.0005124937966995016</v>
+        <v>0.0009400934373811999</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N16">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O16">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P16">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q16">
-        <v>2.423812737989545</v>
+        <v>5.8375188332095</v>
       </c>
       <c r="R16">
-        <v>2.423812737989545</v>
+        <v>35.025112999257</v>
       </c>
       <c r="S16">
-        <v>3.831425505998711E-05</v>
+        <v>7.616743650382633E-05</v>
       </c>
       <c r="T16">
-        <v>3.831425505998711E-05</v>
+        <v>5.285622628876702E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H17">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I17">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J17">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N17">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O17">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P17">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q17">
-        <v>466.2955494291434</v>
+        <v>3.535059097922</v>
       </c>
       <c r="R17">
-        <v>466.2955494291434</v>
+        <v>31.815531881298</v>
       </c>
       <c r="S17">
-        <v>0.007370935194021616</v>
+        <v>4.612514273126702E-05</v>
       </c>
       <c r="T17">
-        <v>0.007370935194021616</v>
+        <v>4.801266316117359E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H18">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I18">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J18">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N18">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P18">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q18">
-        <v>838.6202135351311</v>
+        <v>5.447038273289334</v>
       </c>
       <c r="R18">
-        <v>838.6202135351311</v>
+        <v>49.023344459604</v>
       </c>
       <c r="S18">
-        <v>0.0132564320074072</v>
+        <v>7.107248022128778E-05</v>
       </c>
       <c r="T18">
-        <v>0.0132564320074072</v>
+        <v>7.398088874813824E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H19">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I19">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J19">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N19">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O19">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P19">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q19">
-        <v>369.5596225171778</v>
+        <v>2.362405164783667</v>
       </c>
       <c r="R19">
-        <v>369.5596225171778</v>
+        <v>21.261646483053</v>
       </c>
       <c r="S19">
-        <v>0.005841788606466505</v>
+        <v>3.082445650732748E-05</v>
       </c>
       <c r="T19">
-        <v>0.005841788606466505</v>
+        <v>3.208584645548057E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>17.9410378961001</v>
+        <v>0.106441</v>
       </c>
       <c r="H20">
-        <v>17.9410378961001</v>
+        <v>0.319323</v>
       </c>
       <c r="I20">
-        <v>0.0390034619861795</v>
+        <v>0.0002180031293887273</v>
       </c>
       <c r="J20">
-        <v>0.0390034619861795</v>
+        <v>0.0002207192846134107</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N20">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O20">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P20">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q20">
-        <v>608.4726918990103</v>
+        <v>3.992831964481333</v>
       </c>
       <c r="R20">
-        <v>608.4726918990103</v>
+        <v>35.935487680332</v>
       </c>
       <c r="S20">
-        <v>0.009618390706945859</v>
+        <v>5.20981231606359E-05</v>
       </c>
       <c r="T20">
-        <v>0.009618390706945859</v>
+        <v>5.423006825614298E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.106441</v>
+      </c>
+      <c r="H21">
+        <v>0.319323</v>
+      </c>
+      <c r="I21">
+        <v>0.0002180031293887273</v>
+      </c>
+      <c r="J21">
+        <v>0.0002207192846134107</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.8762265</v>
+      </c>
+      <c r="N21">
+        <v>25.752453</v>
+      </c>
+      <c r="O21">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P21">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q21">
+        <v>1.3705584248865</v>
+      </c>
+      <c r="R21">
+        <v>8.223350549319001</v>
+      </c>
+      <c r="S21">
+        <v>1.788292676820907E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.240981799247535E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>18.02527</v>
+      </c>
+      <c r="H22">
+        <v>36.05054</v>
+      </c>
+      <c r="I22">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J22">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.211442</v>
+      </c>
+      <c r="N22">
+        <v>99.634326</v>
+      </c>
+      <c r="O22">
+        <v>0.211580186305583</v>
+      </c>
+      <c r="P22">
+        <v>0.2175281749633597</v>
+      </c>
+      <c r="Q22">
+        <v>598.64520913934</v>
+      </c>
+      <c r="R22">
+        <v>3591.87125483604</v>
+      </c>
+      <c r="S22">
+        <v>0.007811070466452076</v>
+      </c>
+      <c r="T22">
+        <v>0.005420475298673803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>18.02527</v>
+      </c>
+      <c r="H23">
+        <v>36.05054</v>
+      </c>
+      <c r="I23">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J23">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.17424933333334</v>
+      </c>
+      <c r="N23">
+        <v>153.522748</v>
+      </c>
+      <c r="O23">
+        <v>0.3260158715178649</v>
+      </c>
+      <c r="P23">
+        <v>0.3351809012869699</v>
+      </c>
+      <c r="Q23">
+        <v>922.4296612806534</v>
+      </c>
+      <c r="R23">
+        <v>5534.57796768392</v>
+      </c>
+      <c r="S23">
+        <v>0.01203578175288068</v>
+      </c>
+      <c r="T23">
+        <v>0.008352204473371186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>18.02527</v>
+      </c>
+      <c r="H24">
+        <v>36.05054</v>
+      </c>
+      <c r="I24">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J24">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>22.19450366666666</v>
+      </c>
+      <c r="N24">
+        <v>66.58351099999999</v>
+      </c>
+      <c r="O24">
+        <v>0.1413945597650736</v>
+      </c>
+      <c r="P24">
+        <v>0.1453694746776606</v>
+      </c>
+      <c r="Q24">
+        <v>400.0619211076566</v>
+      </c>
+      <c r="R24">
+        <v>2400.371526645939</v>
+      </c>
+      <c r="S24">
+        <v>0.005219973047489545</v>
+      </c>
+      <c r="T24">
+        <v>0.00362238890113509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>17.9410378961001</v>
-      </c>
-      <c r="H21">
-        <v>17.9410378961001</v>
-      </c>
-      <c r="I21">
-        <v>0.0390034619861795</v>
-      </c>
-      <c r="J21">
-        <v>0.0390034619861795</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="N21">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="O21">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="P21">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="Q21">
-        <v>184.4648434705333</v>
-      </c>
-      <c r="R21">
-        <v>184.4648434705333</v>
-      </c>
-      <c r="S21">
-        <v>0.002915915471338321</v>
-      </c>
-      <c r="T21">
-        <v>0.002915915471338321</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>18.02527</v>
+      </c>
+      <c r="H25">
+        <v>36.05054</v>
+      </c>
+      <c r="I25">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J25">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.51216133333333</v>
+      </c>
+      <c r="N25">
+        <v>112.536484</v>
+      </c>
+      <c r="O25">
+        <v>0.2389787857941174</v>
+      </c>
+      <c r="P25">
+        <v>0.2456970098971044</v>
+      </c>
+      <c r="Q25">
+        <v>676.1668363168933</v>
+      </c>
+      <c r="R25">
+        <v>4057.00101790136</v>
+      </c>
+      <c r="S25">
+        <v>0.008822565895319616</v>
+      </c>
+      <c r="T25">
+        <v>0.006122400343447896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>18.02527</v>
+      </c>
+      <c r="H26">
+        <v>36.05054</v>
+      </c>
+      <c r="I26">
+        <v>0.03691777856349285</v>
+      </c>
+      <c r="J26">
+        <v>0.02491849756743844</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.8762265</v>
+      </c>
+      <c r="N26">
+        <v>25.752453</v>
+      </c>
+      <c r="O26">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P26">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q26">
+        <v>232.097459243655</v>
+      </c>
+      <c r="R26">
+        <v>928.38983697462</v>
+      </c>
+      <c r="S26">
+        <v>0.003028387401350944</v>
+      </c>
+      <c r="T26">
+        <v>0.001401028550810471</v>
       </c>
     </row>
   </sheetData>
